--- a/app/static/febs/scaffolding_request_sandbox_input.xlsx
+++ b/app/static/febs/scaffolding_request_sandbox_input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ysimonx/Developpement/on_site_intervention_api/app/static/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ysimonx/Developpement/on_site_intervention_api/app/static/febs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66C5228-83BA-F749-BF02-87AAB4F111C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C43AEC-D96B-3F43-8631-6C4434653B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="980" windowWidth="29400" windowHeight="19060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1139,7 +1139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1289,14 +1289,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1305,17 +1313,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1333,9 +1330,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1404,13 +1398,16 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1428,61 +1425,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>197254</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>174146</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D6C8D5-BC65-9E48-9FBF-B407983AD71D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14859000" y="609600"/>
-          <a:ext cx="1848254" cy="478946"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1808,22 +1750,22 @@
   <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="L65" sqref="L65:P67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -1836,37 +1778,37 @@
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="97" t="s">
+      <c r="J2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="98"/>
-      <c r="L2" s="134" t="str">
+      <c r="K2" s="91"/>
+      <c r="L2" s="130" t="str">
         <f>registre</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M2" s="135"/>
-      <c r="N2" s="136"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="7"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -1903,11 +1845,11 @@
       <c r="B5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="106" t="str">
+      <c r="C5" s="103" t="str">
         <f>donneur_ordre.company</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D5" s="101"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -1917,12 +1859,12 @@
         <v>4</v>
       </c>
       <c r="K5" s="16"/>
-      <c r="L5" s="106" t="str">
+      <c r="L5" s="103" t="str">
         <f>donneur_ordre.lastname</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="94"/>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="19"/>
@@ -1988,10 +1930,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="96"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="24" t="str">
         <f>numero_permis_ot</f>
         <v xml:space="preserve"> </v>
@@ -2006,11 +1948,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="I9" s="17"/>
-      <c r="J9" s="110" t="s">
+      <c r="J9" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
       <c r="M9" s="25"/>
       <c r="N9" s="26" t="str">
         <f>date_demande</f>
@@ -2041,10 +1983,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="96"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="26" t="str">
         <f>date_mise_a_disposition</f>
         <v xml:space="preserve"> </v>
@@ -2054,20 +1996,20 @@
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="110" t="s">
+      <c r="J11" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
       <c r="M11" s="25"/>
       <c r="N11" s="24" t="str">
         <f>duree_mise_a_disposition</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O11" s="102" t="s">
+      <c r="O11" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="P11" s="103"/>
+      <c r="P11" s="100"/>
       <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -2115,11 +2057,11 @@
       <c r="B14" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="106" t="str">
+      <c r="C14" s="103" t="str">
         <f>demande_echafaudeur.company</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D14" s="101"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -2129,12 +2071,12 @@
         <v>4</v>
       </c>
       <c r="K14" s="16"/>
-      <c r="L14" s="106" t="str">
+      <c r="L14" s="103" t="str">
         <f>demande_echafaudeur.lastname</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M14" s="100"/>
-      <c r="N14" s="101"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="94"/>
       <c r="O14" s="23"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="19"/>
@@ -2180,15 +2122,15 @@
       <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="106" t="str">
+      <c r="B17" s="98"/>
+      <c r="C17" s="103" t="str">
         <f>secteurs</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D17" s="101"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -2198,12 +2140,12 @@
         <v>48</v>
       </c>
       <c r="K17" s="16"/>
-      <c r="L17" s="106" t="str">
+      <c r="L17" s="103" t="str">
         <f>unites</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M17" s="100"/>
-      <c r="N17" s="101"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="94"/>
       <c r="O17" s="23"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="19"/>
@@ -2232,11 +2174,11 @@
       <c r="B19" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="106" t="str">
+      <c r="C19" s="103" t="str">
         <f>niveau_de_depart</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D19" s="101"/>
+      <c r="D19" s="94"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -2246,12 +2188,12 @@
         <v>13</v>
       </c>
       <c r="K19" s="16"/>
-      <c r="L19" s="106" t="str">
+      <c r="L19" s="103" t="str">
         <f>emplacement_repere_equipement</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M19" s="100"/>
-      <c r="N19" s="101"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="94"/>
       <c r="O19" s="23"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="19"/>
@@ -2298,7 +2240,7 @@
     </row>
     <row r="22" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
-      <c r="B22" s="92"/>
+      <c r="B22" s="89"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
@@ -2320,30 +2262,30 @@
         <v>185</v>
       </c>
       <c r="B23" s="38"/>
-      <c r="C23" s="105" t="str">
+      <c r="C23" s="102" t="str">
         <f>entreprise_utilisatrice_1</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D23" s="101"/>
+      <c r="D23" s="94"/>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38" t="s">
         <v>185</v>
       </c>
       <c r="H23" s="38"/>
-      <c r="I23" s="99" t="str">
+      <c r="I23" s="92" t="str">
         <f>entreprise_utilisatrice_2</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J23" s="100"/>
-      <c r="K23" s="101"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="94"/>
       <c r="L23" s="38"/>
-      <c r="M23" s="99" t="str">
+      <c r="M23" s="92" t="str">
         <f>entreprise_utilisatrice_3</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N23" s="100"/>
-      <c r="O23" s="101"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="94"/>
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
     </row>
@@ -2352,30 +2294,30 @@
         <v>15</v>
       </c>
       <c r="B24" s="41"/>
-      <c r="C24" s="105" t="str">
+      <c r="C24" s="102" t="str">
         <f>utilisation_1</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D24" s="101"/>
+      <c r="D24" s="94"/>
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
       <c r="G24" s="41" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="41"/>
-      <c r="I24" s="99" t="str">
+      <c r="I24" s="92" t="str">
         <f>utilisation_2</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J24" s="100"/>
-      <c r="K24" s="101"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="94"/>
       <c r="L24" s="38"/>
-      <c r="M24" s="99" t="str">
+      <c r="M24" s="92" t="str">
         <f>utilisation_3</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N24" s="100"/>
-      <c r="O24" s="101"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="94"/>
       <c r="P24" s="38"/>
       <c r="Q24" s="39"/>
     </row>
@@ -2409,19 +2351,19 @@
         <v>185</v>
       </c>
       <c r="H26" s="38"/>
-      <c r="I26" s="99" t="str">
+      <c r="I26" s="92" t="str">
         <f>entreprise_utilisatrice_4</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J26" s="100"/>
-      <c r="K26" s="101"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="94"/>
       <c r="L26" s="38"/>
-      <c r="M26" s="99" t="str">
+      <c r="M26" s="92" t="str">
         <f>entreprise_utilisatrice_5</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N26" s="100"/>
-      <c r="O26" s="101"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="94"/>
       <c r="P26" s="38"/>
       <c r="Q26" s="39"/>
     </row>
@@ -2436,19 +2378,19 @@
         <v>16</v>
       </c>
       <c r="H27" s="41"/>
-      <c r="I27" s="99" t="str">
+      <c r="I27" s="92" t="str">
         <f>utilisation_4</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J27" s="100"/>
-      <c r="K27" s="101"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="94"/>
       <c r="L27" s="38"/>
-      <c r="M27" s="99" t="str">
+      <c r="M27" s="92" t="str">
         <f>utilisation_5</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N27" s="100"/>
-      <c r="O27" s="101"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="94"/>
       <c r="P27" s="38"/>
       <c r="Q27" s="39"/>
     </row>
@@ -2524,12 +2466,12 @@
       </c>
       <c r="K30" s="44"/>
       <c r="L30" s="38"/>
-      <c r="M30" s="99" t="str">
+      <c r="M30" s="92" t="str">
         <f>altitude_elevation_souhaite</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N30" s="100"/>
-      <c r="O30" s="101"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="94"/>
       <c r="P30" s="38"/>
       <c r="Q30" s="39"/>
     </row>
@@ -2614,12 +2556,12 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="K34" s="44"/>
-      <c r="L34" s="108" t="str">
+      <c r="L34" s="105" t="str">
         <f>precisions_charges_reparties_ou_ponctuelle</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M34" s="100"/>
-      <c r="N34" s="101"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
       <c r="O34" s="38"/>
       <c r="P34" s="38"/>
       <c r="Q34" s="39"/>
@@ -2662,12 +2604,12 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="K36" s="44"/>
-      <c r="L36" s="108" t="str">
+      <c r="L36" s="105" t="str">
         <f>precisions_charges_reparties_ou_ponctuelle</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M36" s="100"/>
-      <c r="N36" s="101"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="94"/>
       <c r="O36" s="38"/>
       <c r="P36" s="38"/>
       <c r="Q36" s="39"/>
@@ -2739,28 +2681,28 @@
       <c r="B40" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="109" t="str">
+      <c r="C40" s="134" t="str">
         <f>type_d_acces</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="101"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="94"/>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
       <c r="I40" s="38"/>
-      <c r="J40" s="107" t="s">
+      <c r="J40" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="K40" s="103"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="105" t="str">
+      <c r="K40" s="100"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="102" t="str">
         <f>approvisionnement_materiaux</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N40" s="100"/>
-      <c r="O40" s="100"/>
-      <c r="P40" s="101"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="94"/>
       <c r="Q40" s="39"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -2790,12 +2732,12 @@
       <c r="C42" s="42"/>
       <c r="D42" s="42"/>
       <c r="E42" s="42"/>
-      <c r="F42" s="105" t="str">
+      <c r="F42" s="102" t="str">
         <f>protection_personnes_biens_ouvrages</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G42" s="100"/>
-      <c r="H42" s="101"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="94"/>
       <c r="I42" s="38"/>
       <c r="J42" s="44"/>
       <c r="K42" s="44"/>
@@ -2835,9 +2777,9 @@
       <c r="G44" s="38"/>
       <c r="H44" s="38"/>
       <c r="I44" s="38"/>
-      <c r="J44" s="125"/>
-      <c r="K44" s="126"/>
-      <c r="L44" s="126"/>
+      <c r="J44" s="121"/>
+      <c r="K44" s="122"/>
+      <c r="L44" s="122"/>
       <c r="M44" s="52"/>
       <c r="N44" s="53"/>
       <c r="O44" s="53"/>
@@ -2889,29 +2831,29 @@
       <c r="B47" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="138" t="str">
+      <c r="C47" s="137" t="str">
         <f>visite_typologie</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D47" s="101"/>
+      <c r="D47" s="94"/>
       <c r="E47" s="65"/>
       <c r="F47" s="66"/>
-      <c r="G47" s="127" t="s">
+      <c r="G47" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="103"/>
-      <c r="I47" s="122" t="str">
+      <c r="H47" s="100"/>
+      <c r="I47" s="118" t="str">
         <f>visite_classe_service</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J47" s="100"/>
-      <c r="K47" s="101"/>
+      <c r="J47" s="93"/>
+      <c r="K47" s="94"/>
       <c r="L47" s="61"/>
-      <c r="M47" s="121" t="s">
+      <c r="M47" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N47" s="103"/>
-      <c r="O47" s="96"/>
+      <c r="N47" s="100"/>
+      <c r="O47" s="98"/>
       <c r="P47" s="67" t="str">
         <f>visite_nature_appuis</f>
         <v xml:space="preserve"> </v>
@@ -2933,10 +2875,10 @@
       <c r="L48" s="61"/>
       <c r="M48" s="61"/>
       <c r="N48" s="61"/>
-      <c r="O48" s="139" t="s">
+      <c r="O48" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="P48" s="103"/>
+      <c r="P48" s="100"/>
       <c r="Q48" s="62"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -2955,15 +2897,15 @@
         <v>20</v>
       </c>
       <c r="I49" s="61"/>
-      <c r="J49" s="140" t="s">
+      <c r="J49" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="K49" s="118"/>
+      <c r="K49" s="114"/>
       <c r="L49" s="61"/>
-      <c r="M49" s="104" t="s">
+      <c r="M49" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="N49" s="103"/>
+      <c r="N49" s="100"/>
       <c r="O49" s="61"/>
       <c r="P49" s="70" t="s">
         <v>21</v>
@@ -2971,11 +2913,11 @@
       <c r="Q49" s="62"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="137" t="s">
+      <c r="A50" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="103"/>
-      <c r="C50" s="103"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
       <c r="D50" s="71" t="str">
         <f>visite_longueur_echafaudage</f>
         <v xml:space="preserve"> </v>
@@ -2991,17 +2933,17 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="I50" s="61"/>
-      <c r="J50" s="132" t="str">
+      <c r="J50" s="128" t="str">
         <f>visite_planchers_travail</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K50" s="101"/>
+      <c r="K50" s="94"/>
       <c r="L50" s="61"/>
-      <c r="M50" s="132" t="str">
+      <c r="M50" s="128" t="str">
         <f>visite_planchers_acces</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N50" s="101"/>
+      <c r="N50" s="94"/>
       <c r="O50" s="61"/>
       <c r="P50" s="71" t="str">
         <f>visite_altitude_elevation</f>
@@ -3050,22 +2992,22 @@
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="59"/>
       <c r="B53" s="61"/>
-      <c r="C53" s="123" t="s">
+      <c r="C53" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="103"/>
-      <c r="E53" s="96"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="98"/>
       <c r="F53" s="67" t="str">
         <f>visite_conforme_notice</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G53" s="61"/>
       <c r="H53" s="61"/>
-      <c r="I53" s="123" t="s">
+      <c r="I53" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="J53" s="103"/>
-      <c r="K53" s="96"/>
+      <c r="J53" s="100"/>
+      <c r="K53" s="98"/>
       <c r="L53" s="71" t="str">
         <f>visite_marque_materiel</f>
         <v xml:space="preserve"> </v>
@@ -3116,10 +3058,10 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="59"/>
-      <c r="B56" s="121" t="s">
+      <c r="B56" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="96"/>
+      <c r="C56" s="98"/>
       <c r="D56" s="67" t="str">
         <f>visite_modification_prevoir</f>
         <v xml:space="preserve"> </v>
@@ -3128,24 +3070,24 @@
       <c r="F56" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="G56" s="133" t="str">
+      <c r="G56" s="129" t="str">
         <f>visite_precisions_modification_prevoir</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="112"/>
-      <c r="K56" s="112"/>
-      <c r="L56" s="94"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="108"/>
+      <c r="J56" s="108"/>
+      <c r="K56" s="108"/>
+      <c r="L56" s="96"/>
       <c r="M56" s="66"/>
       <c r="N56" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="O56" s="122" t="str">
+      <c r="O56" s="118" t="str">
         <f>visite_type_facturation</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P56" s="101"/>
+      <c r="P56" s="94"/>
       <c r="Q56" s="62"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -3155,12 +3097,12 @@
       <c r="D57" s="66"/>
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
-      <c r="G57" s="114"/>
-      <c r="H57" s="115"/>
-      <c r="I57" s="115"/>
-      <c r="J57" s="115"/>
-      <c r="K57" s="115"/>
-      <c r="L57" s="116"/>
+      <c r="G57" s="110"/>
+      <c r="H57" s="111"/>
+      <c r="I57" s="111"/>
+      <c r="J57" s="111"/>
+      <c r="K57" s="111"/>
+      <c r="L57" s="112"/>
       <c r="M57" s="61"/>
       <c r="N57" s="61"/>
       <c r="O57" s="61"/>
@@ -3248,10 +3190,10 @@
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="76"/>
       <c r="B62" s="78"/>
-      <c r="C62" s="124" t="s">
+      <c r="C62" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="103"/>
+      <c r="D62" s="100"/>
       <c r="E62" s="80"/>
       <c r="F62" s="78"/>
       <c r="G62" s="78"/>
@@ -3261,11 +3203,11 @@
       <c r="K62" s="78"/>
       <c r="L62" s="78"/>
       <c r="M62" s="78"/>
-      <c r="N62" s="117" t="s">
+      <c r="N62" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="O62" s="118"/>
-      <c r="P62" s="118"/>
+      <c r="O62" s="114"/>
+      <c r="P62" s="114"/>
       <c r="Q62" s="79"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -3273,11 +3215,11 @@
       <c r="B63" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="C63" s="93" t="str">
+      <c r="C63" s="95" t="str">
         <f>visite_echafaudeur.company</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D63" s="94"/>
+      <c r="D63" s="96"/>
       <c r="E63" s="80"/>
       <c r="F63" s="78"/>
       <c r="G63" s="78"/>
@@ -3285,16 +3227,16 @@
       <c r="I63" s="78"/>
       <c r="J63" s="78"/>
       <c r="K63" s="78"/>
-      <c r="L63" s="95" t="s">
+      <c r="L63" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="M63" s="96"/>
-      <c r="N63" s="99" t="str">
+      <c r="M63" s="98"/>
+      <c r="N63" s="92" t="str">
         <f>visite_donneur_ordre.company</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O63" s="100"/>
-      <c r="P63" s="101"/>
+      <c r="O63" s="93"/>
+      <c r="P63" s="94"/>
       <c r="Q63" s="79"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -3302,11 +3244,11 @@
       <c r="B64" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C64" s="93" t="str">
+      <c r="C64" s="95" t="str">
         <f>visite_echafaudeur.lastname</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D64" s="94"/>
+      <c r="D64" s="96"/>
       <c r="E64" s="80"/>
       <c r="F64" s="78"/>
       <c r="G64" s="78"/>
@@ -3314,26 +3256,26 @@
       <c r="I64" s="78"/>
       <c r="J64" s="78"/>
       <c r="K64" s="78"/>
-      <c r="L64" s="119" t="s">
+      <c r="L64" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="M64" s="120"/>
-      <c r="N64" s="99" t="str">
+      <c r="M64" s="116"/>
+      <c r="N64" s="92" t="str">
         <f>visite_donneur_ordre.lastname</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O64" s="100"/>
-      <c r="P64" s="101"/>
+      <c r="O64" s="93"/>
+      <c r="P64" s="94"/>
       <c r="Q64" s="79"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="76"/>
-      <c r="B65" s="99" t="str">
+      <c r="B65" s="92" t="str">
         <f>visite_echafaudeur_signature</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C65" s="112"/>
-      <c r="D65" s="94"/>
+      <c r="C65" s="108"/>
+      <c r="D65" s="96"/>
       <c r="E65" s="80"/>
       <c r="F65" s="78"/>
       <c r="G65" s="78"/>
@@ -3341,18 +3283,21 @@
       <c r="I65" s="78"/>
       <c r="J65" s="78"/>
       <c r="K65" s="78"/>
-      <c r="L65" s="99"/>
-      <c r="M65" s="112"/>
-      <c r="N65" s="112"/>
-      <c r="O65" s="112"/>
-      <c r="P65" s="94"/>
+      <c r="L65" s="92" t="str">
+        <f>visite_donneur_ordre_signature</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M65" s="108"/>
+      <c r="N65" s="108"/>
+      <c r="O65" s="108"/>
+      <c r="P65" s="96"/>
       <c r="Q65" s="79"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="76"/>
-      <c r="B66" s="113"/>
-      <c r="C66" s="103"/>
-      <c r="D66" s="96"/>
+      <c r="B66" s="109"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="98"/>
       <c r="E66" s="80"/>
       <c r="F66" s="78"/>
       <c r="G66" s="78"/>
@@ -3360,18 +3305,18 @@
       <c r="I66" s="78"/>
       <c r="J66" s="78"/>
       <c r="K66" s="78"/>
-      <c r="L66" s="113"/>
-      <c r="M66" s="103"/>
-      <c r="N66" s="103"/>
-      <c r="O66" s="103"/>
-      <c r="P66" s="96"/>
+      <c r="L66" s="109"/>
+      <c r="M66" s="100"/>
+      <c r="N66" s="100"/>
+      <c r="O66" s="100"/>
+      <c r="P66" s="98"/>
       <c r="Q66" s="79"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="76"/>
-      <c r="B67" s="114"/>
-      <c r="C67" s="115"/>
-      <c r="D67" s="116"/>
+      <c r="B67" s="110"/>
+      <c r="C67" s="111"/>
+      <c r="D67" s="112"/>
       <c r="E67" s="80"/>
       <c r="F67" s="78"/>
       <c r="G67" s="78"/>
@@ -3379,11 +3324,11 @@
       <c r="I67" s="78"/>
       <c r="J67" s="78"/>
       <c r="K67" s="78"/>
-      <c r="L67" s="114"/>
-      <c r="M67" s="115"/>
-      <c r="N67" s="115"/>
-      <c r="O67" s="115"/>
-      <c r="P67" s="116"/>
+      <c r="L67" s="110"/>
+      <c r="M67" s="111"/>
+      <c r="N67" s="111"/>
+      <c r="O67" s="111"/>
+      <c r="P67" s="112"/>
       <c r="Q67" s="79"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -3427,10 +3372,10 @@
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="76"/>
       <c r="B70" s="78"/>
-      <c r="C70" s="117" t="s">
+      <c r="C70" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="D70" s="118"/>
+      <c r="D70" s="114"/>
       <c r="E70" s="80"/>
       <c r="F70" s="78"/>
       <c r="G70" s="78"/>
@@ -3440,11 +3385,11 @@
       <c r="K70" s="78"/>
       <c r="L70" s="78"/>
       <c r="M70" s="78"/>
-      <c r="N70" s="117" t="s">
+      <c r="N70" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="O70" s="118"/>
-      <c r="P70" s="118"/>
+      <c r="O70" s="114"/>
+      <c r="P70" s="114"/>
       <c r="Q70" s="79"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
@@ -3452,11 +3397,11 @@
       <c r="B71" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="C71" s="93" t="str">
+      <c r="C71" s="95" t="str">
         <f>visite_service_securite.company</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D71" s="94"/>
+      <c r="D71" s="96"/>
       <c r="E71" s="80"/>
       <c r="F71" s="78"/>
       <c r="G71" s="78"/>
@@ -3464,10 +3409,10 @@
       <c r="I71" s="78"/>
       <c r="J71" s="78"/>
       <c r="K71" s="78"/>
-      <c r="L71" s="95" t="s">
+      <c r="L71" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="M71" s="96"/>
+      <c r="M71" s="98"/>
       <c r="N71" s="82" t="str">
         <f>visite_responsable_unite_fabrication.company</f>
         <v xml:space="preserve"> </v>
@@ -3479,11 +3424,11 @@
       <c r="B72" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="93" t="str">
+      <c r="C72" s="95" t="str">
         <f>visite_service_securite.lastname</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D72" s="94"/>
+      <c r="D72" s="96"/>
       <c r="E72" s="80"/>
       <c r="F72" s="78"/>
       <c r="G72" s="78"/>
@@ -3491,10 +3436,10 @@
       <c r="I72" s="78"/>
       <c r="J72" s="78"/>
       <c r="K72" s="78"/>
-      <c r="L72" s="119" t="s">
+      <c r="L72" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="M72" s="120"/>
+      <c r="M72" s="116"/>
       <c r="N72" s="82" t="str">
         <f>visite_responsable_unite_fabrication.lastname</f>
         <v xml:space="preserve"> </v>
@@ -3505,12 +3450,12 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="76"/>
-      <c r="B73" s="99" t="str">
+      <c r="B73" s="92" t="str">
         <f>visite_service_securite_signature</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C73" s="112"/>
-      <c r="D73" s="94"/>
+      <c r="C73" s="108"/>
+      <c r="D73" s="96"/>
       <c r="E73" s="80"/>
       <c r="F73" s="78"/>
       <c r="G73" s="78"/>
@@ -3518,21 +3463,21 @@
       <c r="I73" s="78"/>
       <c r="J73" s="78"/>
       <c r="K73" s="78"/>
-      <c r="L73" s="82" t="str">
+      <c r="L73" s="92" t="str">
         <f>visite_responsable_unite_fabrication_signature</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M73" s="83"/>
-      <c r="N73" s="83"/>
-      <c r="O73" s="83"/>
-      <c r="P73" s="84"/>
+      <c r="M73" s="108"/>
+      <c r="N73" s="108"/>
+      <c r="O73" s="108"/>
+      <c r="P73" s="96"/>
       <c r="Q73" s="79"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="76"/>
-      <c r="B74" s="113"/>
-      <c r="C74" s="103"/>
-      <c r="D74" s="96"/>
+      <c r="B74" s="109"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="98"/>
       <c r="E74" s="80"/>
       <c r="F74" s="78"/>
       <c r="G74" s="78"/>
@@ -3540,18 +3485,18 @@
       <c r="I74" s="78"/>
       <c r="J74" s="78"/>
       <c r="K74" s="78"/>
-      <c r="L74" s="59"/>
-      <c r="M74" s="61"/>
-      <c r="N74" s="61"/>
-      <c r="O74" s="61"/>
-      <c r="P74" s="62"/>
+      <c r="L74" s="109"/>
+      <c r="M74" s="100"/>
+      <c r="N74" s="100"/>
+      <c r="O74" s="100"/>
+      <c r="P74" s="98"/>
       <c r="Q74" s="79"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="76"/>
-      <c r="B75" s="114"/>
-      <c r="C75" s="115"/>
-      <c r="D75" s="116"/>
+      <c r="B75" s="110"/>
+      <c r="C75" s="111"/>
+      <c r="D75" s="112"/>
       <c r="E75" s="80"/>
       <c r="F75" s="78"/>
       <c r="G75" s="78"/>
@@ -3559,11 +3504,11 @@
       <c r="I75" s="78"/>
       <c r="J75" s="78"/>
       <c r="K75" s="78"/>
-      <c r="L75" s="85"/>
-      <c r="M75" s="86"/>
-      <c r="N75" s="86"/>
-      <c r="O75" s="86"/>
-      <c r="P75" s="87"/>
+      <c r="L75" s="110"/>
+      <c r="M75" s="111"/>
+      <c r="N75" s="111"/>
+      <c r="O75" s="111"/>
+      <c r="P75" s="112"/>
       <c r="Q75" s="79"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
@@ -3586,26 +3531,27 @@
       <c r="Q76" s="79"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="88"/>
-      <c r="B77" s="89"/>
-      <c r="C77" s="89"/>
-      <c r="D77" s="89"/>
-      <c r="E77" s="89"/>
-      <c r="F77" s="89"/>
-      <c r="G77" s="89"/>
-      <c r="H77" s="89"/>
-      <c r="I77" s="89"/>
-      <c r="J77" s="89"/>
-      <c r="K77" s="89"/>
-      <c r="L77" s="89"/>
-      <c r="M77" s="89"/>
-      <c r="N77" s="89"/>
-      <c r="O77" s="89"/>
-      <c r="P77" s="89"/>
-      <c r="Q77" s="90"/>
+      <c r="A77" s="85"/>
+      <c r="B77" s="86"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="86"/>
+      <c r="F77" s="86"/>
+      <c r="G77" s="86"/>
+      <c r="H77" s="86"/>
+      <c r="I77" s="86"/>
+      <c r="J77" s="86"/>
+      <c r="K77" s="86"/>
+      <c r="L77" s="86"/>
+      <c r="M77" s="86"/>
+      <c r="N77" s="86"/>
+      <c r="O77" s="86"/>
+      <c r="P77" s="86"/>
+      <c r="Q77" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="68">
+    <mergeCell ref="L73:P75"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="C64:D64"/>
@@ -3616,12 +3562,6 @@
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="M24:O24"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="B65:D67"/>
-    <mergeCell ref="C72:D72"/>
     <mergeCell ref="L14:N14"/>
     <mergeCell ref="B1:H3"/>
     <mergeCell ref="C19:D19"/>
@@ -3629,14 +3569,8 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="J9:L9"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="G56:L57"/>
-    <mergeCell ref="B56:C56"/>
     <mergeCell ref="L2:N2"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="B73:D75"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="N70:P70"/>
     <mergeCell ref="M30:O30"/>
     <mergeCell ref="L72:M72"/>
@@ -3645,20 +3579,30 @@
     <mergeCell ref="N62:P62"/>
     <mergeCell ref="L65:P67"/>
     <mergeCell ref="L36:N36"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="C62:D62"/>
     <mergeCell ref="J44:L44"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="F42:H42"/>
     <mergeCell ref="I47:K47"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="G56:L57"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M50:N50"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="L71:M71"/>
+    <mergeCell ref="B73:D75"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="B65:D67"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="C63:D63"/>
@@ -3673,10 +3617,11 @@
     <mergeCell ref="L34:N34"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="L5:N5"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3704,406 +3649,406 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="L1" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="M1" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="N1" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="O1" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="P1" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="91" t="s">
+      <c r="Q1" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="91" t="s">
+      <c r="R1" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="91" t="s">
+      <c r="S1" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="91" t="s">
+      <c r="T1" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="U1" s="91" t="s">
+      <c r="U1" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="V1" s="91" t="s">
+      <c r="V1" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="91" t="s">
+      <c r="W1" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="91" t="s">
+      <c r="X1" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="Y1" s="91" t="s">
+      <c r="Y1" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="Z1" s="91" t="s">
+      <c r="Z1" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" s="91" t="s">
+      <c r="AA1" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="AB1" s="91" t="s">
+      <c r="AB1" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="AC1" s="91" t="s">
+      <c r="AC1" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="AD1" s="91" t="s">
+      <c r="AD1" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="AE1" s="91" t="s">
+      <c r="AE1" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="AF1" s="91" t="s">
+      <c r="AF1" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="91" t="s">
+      <c r="AG1" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="AH1" s="91" t="s">
+      <c r="AH1" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="AI1" s="91" t="s">
+      <c r="AI1" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="AJ1" s="91" t="s">
+      <c r="AJ1" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="AK1" s="91" t="s">
+      <c r="AK1" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" s="91" t="s">
+      <c r="AL1" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="AM1" s="91" t="s">
+      <c r="AM1" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="AN1" s="91" t="s">
+      <c r="AN1" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="AO1" s="91" t="s">
+      <c r="AO1" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="AP1" s="91" t="s">
+      <c r="AP1" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="AQ1" s="91" t="s">
+      <c r="AQ1" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="AR1" s="91" t="s">
+      <c r="AR1" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="AS1" s="91" t="s">
+      <c r="AS1" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="AT1" s="91" t="s">
+      <c r="AT1" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="AU1" s="91" t="s">
+      <c r="AU1" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="AV1" s="91" t="s">
+      <c r="AV1" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="AW1" s="91" t="s">
+      <c r="AW1" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="AX1" s="91" t="s">
+      <c r="AX1" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="AY1" s="91" t="s">
+      <c r="AY1" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="AZ1" s="91" t="s">
+      <c r="AZ1" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="BA1" s="91" t="s">
+      <c r="BA1" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="BB1" s="91" t="s">
+      <c r="BB1" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="BC1" s="91" t="s">
+      <c r="BC1" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="BD1" s="91" t="s">
+      <c r="BD1" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="BE1" s="91" t="s">
+      <c r="BE1" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="BF1" s="91" t="s">
+      <c r="BF1" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="BG1" s="91" t="s">
+      <c r="BG1" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="BH1" s="91" t="s">
+      <c r="BH1" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="BI1" s="91" t="s">
+      <c r="BI1" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="BJ1" s="91" t="s">
+      <c r="BJ1" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="BK1" s="91" t="s">
+      <c r="BK1" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="BL1" s="91" t="s">
+      <c r="BL1" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="BM1" s="91" t="s">
+      <c r="BM1" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="BN1" s="91" t="s">
+      <c r="BN1" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="BO1" s="91" t="s">
+      <c r="BO1" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="BP1" s="91" t="s">
+      <c r="BP1" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="BQ1" s="91" t="s">
+      <c r="BQ1" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="BR1" s="91" t="s">
+      <c r="BR1" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="BS1" s="91" t="s">
+      <c r="BS1" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="BT1" s="91" t="s">
+      <c r="BT1" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="BU1" s="91" t="s">
+      <c r="BU1" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="BV1" s="91" t="s">
+      <c r="BV1" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="BW1" s="91" t="s">
+      <c r="BW1" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="BX1" s="91" t="s">
+      <c r="BX1" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="BY1" s="91" t="s">
+      <c r="BY1" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="BZ1" s="91" t="s">
+      <c r="BZ1" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="CA1" s="91" t="s">
+      <c r="CA1" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="CB1" s="91" t="s">
+      <c r="CB1" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="CC1" s="91" t="s">
+      <c r="CC1" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="CD1" s="91" t="s">
+      <c r="CD1" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="CE1" s="91" t="s">
+      <c r="CE1" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="CF1" s="91" t="s">
+      <c r="CF1" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="CG1" s="91" t="s">
+      <c r="CG1" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="CH1" s="91" t="s">
+      <c r="CH1" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="CI1" s="91" t="s">
+      <c r="CI1" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="CJ1" s="91" t="s">
+      <c r="CJ1" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="CK1" s="91" t="s">
+      <c r="CK1" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="CL1" s="91" t="s">
+      <c r="CL1" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="CM1" s="91" t="s">
+      <c r="CM1" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="CN1" s="91" t="s">
+      <c r="CN1" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="CO1" s="91" t="s">
+      <c r="CO1" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="CP1" s="91" t="s">
+      <c r="CP1" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="CQ1" s="91" t="s">
+      <c r="CQ1" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="CR1" s="91" t="s">
+      <c r="CR1" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="CS1" s="91" t="s">
+      <c r="CS1" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="CT1" s="91" t="s">
+      <c r="CT1" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="CU1" s="91" t="s">
+      <c r="CU1" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="CV1" s="91" t="s">
+      <c r="CV1" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="CW1" s="91" t="s">
+      <c r="CW1" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="CX1" s="91" t="s">
+      <c r="CX1" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="CY1" s="91" t="s">
+      <c r="CY1" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="CZ1" s="91" t="s">
+      <c r="CZ1" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="DA1" s="91" t="s">
+      <c r="DA1" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="DB1" s="91" t="s">
+      <c r="DB1" s="88" t="s">
         <v>155</v>
       </c>
-      <c r="DC1" s="91" t="s">
+      <c r="DC1" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="DD1" s="91" t="s">
+      <c r="DD1" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="DE1" s="91" t="s">
+      <c r="DE1" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="DF1" s="91" t="s">
+      <c r="DF1" s="88" t="s">
         <v>159</v>
       </c>
-      <c r="DG1" s="91" t="s">
+      <c r="DG1" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="DH1" s="91" t="s">
+      <c r="DH1" s="88" t="s">
         <v>161</v>
       </c>
-      <c r="DI1" s="91" t="s">
+      <c r="DI1" s="88" t="s">
         <v>162</v>
       </c>
-      <c r="DJ1" s="91" t="s">
+      <c r="DJ1" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="DK1" s="91" t="s">
+      <c r="DK1" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="DL1" s="91" t="s">
+      <c r="DL1" s="88" t="s">
         <v>165</v>
       </c>
-      <c r="DM1" s="91" t="s">
+      <c r="DM1" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="DN1" s="91" t="s">
+      <c r="DN1" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="DO1" s="91" t="s">
+      <c r="DO1" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="DP1" s="91" t="s">
+      <c r="DP1" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="DQ1" s="91" t="s">
+      <c r="DQ1" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="DR1" s="91" t="s">
+      <c r="DR1" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="DS1" s="91" t="s">
+      <c r="DS1" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="DT1" s="91" t="s">
+      <c r="DT1" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="DU1" s="91" t="s">
+      <c r="DU1" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="DV1" s="91" t="s">
+      <c r="DV1" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="DW1" s="91" t="s">
+      <c r="DW1" s="88" t="s">
         <v>176</v>
       </c>
-      <c r="DX1" s="91" t="s">
+      <c r="DX1" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="DY1" s="91" t="s">
+      <c r="DY1" s="88" t="s">
         <v>178</v>
       </c>
-      <c r="DZ1" s="91" t="s">
+      <c r="DZ1" s="88" t="s">
         <v>179</v>
       </c>
-      <c r="EA1" s="91" t="s">
+      <c r="EA1" s="88" t="s">
         <v>180</v>
       </c>
-      <c r="EB1" s="91" t="s">
+      <c r="EB1" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="EC1" s="91" t="s">
+      <c r="EC1" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="ED1" s="91" t="s">
+      <c r="ED1" s="88" t="s">
         <v>183</v>
       </c>
     </row>
